--- a/MyProject/Luban/Config/Datas/BuffInfo.xlsx
+++ b/MyProject/Luban/Config/Datas/BuffInfo.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lofnh\Documents\GitHub\Draconia\My project\Luban\Config\Datas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lofnh\Documents\GitHub\Draconia\MyProject\Luban\Config\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{156FE64B-AEC1-412E-80D1-A2F55131857A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7C42CE4-9757-497B-9C1D-6A91AD136196}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1650" yWindow="3660" windowWidth="28740" windowHeight="13575" tabRatio="599" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7485" yWindow="2940" windowWidth="28740" windowHeight="13575" tabRatio="599" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="28">
   <si>
     <t>##</t>
   </si>
@@ -116,6 +116,14 @@
   </si>
   <si>
     <t>受到真实伤害</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蓄力</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>回合开始时施放</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -447,7 +455,7 @@
   <dimension ref="A1:M15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -645,12 +653,22 @@
       <c r="J8" s="1"/>
       <c r="M8" s="1"/>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
+    <row r="9" spans="1:13" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="B9" s="1">
+        <v>6</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F9" s="1" t="b">
+        <v>0</v>
+      </c>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
